--- a/NewMounterAccount/wwwroot/Files/Templates/SBTemplate.xlsx
+++ b/NewMounterAccount/wwwroot/Files/Templates/SBTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timur\source\Git\LK\NewMounterAccount\wwwroot\Files\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\LK-master\NewMounterAccount\wwwroot\Files\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC38B3E-6A27-4C20-82F8-A4C9BB9E1F32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F11DF92-BF46-421B-B106-E67ADAC471D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27990" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{848E7FA9-4132-4854-AB0F-3A671A8C4F27}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{848E7FA9-4132-4854-AB0F-3A671A8C4F27}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -362,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -392,6 +392,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -437,6 +440,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -449,10 +455,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -461,18 +473,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -488,9 +491,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -528,7 +531,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -634,7 +637,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -787,14 +790,13 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:F35"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.5703125" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" customWidth="1"/>
@@ -805,24 +807,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="K1" s="27" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="K1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="28"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -832,15 +834,15 @@
       <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -850,342 +852,342 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="30" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="17" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="17" t="s">
+      <c r="I5" s="19"/>
+      <c r="J5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="30" t="s">
+      <c r="K5" s="19"/>
+      <c r="L5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="34" t="s">
+      <c r="M5" s="38" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="35"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="39"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="36"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="35"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="37"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="36"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="38"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="37"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="36"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="35"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="37"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="36"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="38"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="37"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="36"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="35"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="37"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="36"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="38"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="37"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="36"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="35"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="37"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="36"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="38"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="37"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="36"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="35"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="37"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="36"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="38"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="37"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="36"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="35"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="37"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="36"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="38"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="37"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -1226,7 +1228,7 @@
       <c r="G27" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="13"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
@@ -1238,7 +1240,7 @@
       <c r="G28" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="13"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
@@ -1250,7 +1252,7 @@
       <c r="G29" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="13"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
@@ -1262,7 +1264,7 @@
       <c r="G30" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="13"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
@@ -1274,7 +1276,7 @@
       <c r="G31" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="13"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
@@ -1286,7 +1288,7 @@
       <c r="G32" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="13"/>
+      <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
@@ -1312,11 +1314,11 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="9"/>
       <c r="H35" s="11"/>
     </row>
